--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-王家新.xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-王家新.xlsx
@@ -361,8 +361,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
@@ -411,7 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,30 +425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,9 +441,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,18 +485,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,16 +517,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,35 +559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,7 +635,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,55 +767,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,85 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,17 +1137,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,34 +1176,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1210,16 +1201,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,46 +1228,46 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1276,93 +1276,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
@@ -2368,7 +2368,7 @@
   <dimension ref="A1:O591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3153,7 +3153,7 @@
         <v>62</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G17" s="14">
         <v>76107990</v>
@@ -3162,7 +3162,7 @@
         <v>94</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>21</v>
@@ -3200,7 +3200,7 @@
         <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G18" s="14">
         <v>76107991</v>
@@ -3209,7 +3209,7 @@
         <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>21</v>
@@ -3247,7 +3247,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G19" s="14">
         <v>76109708</v>
@@ -3256,7 +3256,7 @@
         <v>96</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>21</v>
@@ -3294,7 +3294,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G20" s="14">
         <v>76109790</v>
@@ -3303,7 +3303,7 @@
         <v>97</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>21</v>
@@ -3341,7 +3341,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G21" s="14">
         <v>76109791</v>
@@ -3350,7 +3350,7 @@
         <v>98</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>21</v>
@@ -3388,7 +3388,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G22" s="14">
         <v>76109792</v>
@@ -3397,7 +3397,7 @@
         <v>99</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>21</v>
@@ -3435,7 +3435,7 @@
         <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G23" s="14">
         <v>76107989</v>
@@ -3444,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>21</v>
@@ -3482,7 +3482,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G24" s="14">
         <v>76106950</v>
@@ -3491,7 +3491,7 @@
         <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>21</v>
@@ -3529,7 +3529,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G25" s="14">
         <v>76106803</v>
@@ -3538,7 +3538,7 @@
         <v>102</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>21</v>
@@ -3576,7 +3576,7 @@
         <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G26" s="14">
         <v>76110718</v>
@@ -3585,7 +3585,7 @@
         <v>103</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>21</v>
@@ -3623,7 +3623,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G27" s="14">
         <v>76112033</v>
@@ -3632,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>21</v>
@@ -3670,7 +3670,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G28" s="14">
         <v>76111553</v>
@@ -3679,7 +3679,7 @@
         <v>105</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>21</v>
